--- a/tabular/contributed/180530 GLE PIB TABLE.xlsx
+++ b/tabular/contributed/180530 GLE PIB TABLE.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshsinger/gitrepos_ssh/PHE-HCV-DRUG-RESISTANCE/tabular/contributed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="3285" windowWidth="18195" windowHeight="10950" activeTab="1"/>
+    <workbookView xWindow="2000" yWindow="460" windowWidth="50120" windowHeight="28340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GLE" sheetId="1" r:id="rId1"/>
     <sheet name="PIB" sheetId="3" r:id="rId2"/>
     <sheet name="Notes" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="134">
-  <si>
-    <t>Substitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="133">
   <si>
     <t>in vivo</t>
   </si>
@@ -39,9 +49,6 @@
     <t>NS3</t>
   </si>
   <si>
-    <t>Gene</t>
-  </si>
-  <si>
     <t>156T</t>
   </si>
   <si>
@@ -183,9 +190,6 @@
     <t>GLE/PIB</t>
   </si>
   <si>
-    <t xml:space="preserve">EASL 2017 FRI 205 </t>
-  </si>
-  <si>
     <t>30R+31M+58D</t>
   </si>
   <si>
@@ -285,12 +289,6 @@
     <t>PIB/PTV/r</t>
   </si>
   <si>
-    <t>Magellan-1, Part 1</t>
-  </si>
-  <si>
-    <t>Magellan-1, Part 2</t>
-  </si>
-  <si>
     <t>Surveyor-1</t>
   </si>
   <si>
@@ -321,30 +319,15 @@
     <t>62A</t>
   </si>
   <si>
-    <t>surveyor-1/11</t>
-  </si>
-  <si>
     <t>28K</t>
   </si>
   <si>
     <t>56H+168K</t>
   </si>
   <si>
-    <t>surveyor1/11</t>
-  </si>
-  <si>
     <t>Surveyor-1/11 - used lower doses of GLE/PIB</t>
   </si>
   <si>
-    <t>RAS context</t>
-  </si>
-  <si>
-    <t>Rx emergent RAS</t>
-  </si>
-  <si>
-    <t>Baseline RAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes  </t>
   </si>
   <si>
@@ -418,6 +401,33 @@
   </si>
   <si>
     <t>pubmed</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>substitution</t>
+  </si>
+  <si>
+    <t>baselineRas</t>
+  </si>
+  <si>
+    <t>rxEmergentRas</t>
+  </si>
+  <si>
+    <t>rasContext</t>
+  </si>
+  <si>
+    <t>Magellan-1_Part_2</t>
+  </si>
+  <si>
+    <t>Magellan-1_Part_1</t>
+  </si>
+  <si>
+    <t>Surveyor-1_and_2</t>
+  </si>
+  <si>
+    <t>EASL_2017_FRI_205</t>
   </si>
 </sst>
 </file>
@@ -500,29 +510,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -621,12 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -769,12 +773,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -804,12 +808,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1013,351 +1017,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="15" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="15" customWidth="1"/>
-    <col min="12" max="13" width="21.42578125" style="45" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="15" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="15" customWidth="1"/>
+    <col min="12" max="13" width="21.5" style="43" customWidth="1"/>
+    <col min="14" max="14" width="23.1640625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="40" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="C1" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="D1" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="E1" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="60" t="s">
-        <v>133</v>
+      <c r="F1" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>123</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>35</v>
+      <c r="B2" s="56" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>28</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="54">
+        <v>2</v>
+      </c>
+      <c r="I2" s="52">
         <v>2.6</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N2" s="11">
         <v>29084747</v>
       </c>
-      <c r="O2" s="53"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="55" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N3" s="24">
         <v>29152781</v>
       </c>
-      <c r="O3" s="51"/>
+      <c r="O3" s="49"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>27</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="54">
+        <v>2</v>
+      </c>
+      <c r="I4" s="52">
         <v>1654</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N4" s="11">
         <v>29084747</v>
       </c>
-      <c r="O4" s="53"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="51">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="51"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="48">
+        <v>29152781</v>
+      </c>
+      <c r="O6" s="49"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="53">
-        <v>3</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="51" t="s">
+      <c r="G7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="50">
-        <v>29152781</v>
-      </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="I7" s="12">
         <v>1361</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N7" s="11">
         <v>29084747</v>
@@ -1365,91 +1369,91 @@
       <c r="O7" s="13"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="12">
         <v>640</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N8" s="11">
         <v>29084747</v>
       </c>
-      <c r="O8" s="57"/>
+      <c r="O8" s="55"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>8</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="54">
+        <v>2</v>
+      </c>
+      <c r="I9" s="52">
         <v>216</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N9" s="11">
         <v>29084747</v>
@@ -1457,45 +1461,45 @@
       <c r="O9" s="9"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="C10" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="10">
         <v>148</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N10" s="11">
         <v>29084747</v>
@@ -1503,45 +1507,45 @@
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>8</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="54">
+        <v>2</v>
+      </c>
+      <c r="I11" s="52">
         <v>1436</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N11" s="11">
         <v>29084747</v>
@@ -1549,91 +1553,91 @@
       <c r="O11" s="9"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="51" t="s">
+      <c r="C12" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="48">
+        <v>29152781</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="50">
-        <v>29152781</v>
-      </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="56">
+      <c r="I13" s="54">
         <v>1786</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N13" s="11">
         <v>29084747</v>
@@ -1641,45 +1645,45 @@
       <c r="O13" s="9"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="10">
         <v>1143</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N14" s="11">
         <v>29084747</v>
@@ -1687,45 +1691,45 @@
       <c r="O14" s="9"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="10">
         <v>1455</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N15" s="11">
         <v>29084747</v>
@@ -1733,45 +1737,45 @@
       <c r="O15" s="9"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="10">
         <v>3106</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N16" s="11">
         <v>29084747</v>
@@ -1779,183 +1783,183 @@
       <c r="O16" s="9"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="49">
+        <v>28128852</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="48">
+        <v>29152781</v>
+      </c>
+      <c r="O19" s="49"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="51">
-        <v>28128852</v>
-      </c>
-      <c r="O18" s="51"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="50">
-        <v>29152781</v>
-      </c>
-      <c r="O19" s="51"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="I20" s="10">
         <v>5244</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L20" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N20" s="11">
         <v>29084747</v>
@@ -1963,183 +1967,183 @@
       <c r="O20" s="9"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="53">
+        <v>108</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="51">
         <v>3</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="J22" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="10">
         <v>4.7</v>
       </c>
-      <c r="J23" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="55" t="s">
-        <v>21</v>
+      <c r="J23" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>6</v>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="55" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="L24" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N24" s="19">
         <v>28412293</v>
@@ -2147,91 +2151,91 @@
       <c r="O24" s="9"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>11</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="56">
+      <c r="I25" s="54">
         <v>4</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L25" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N25" s="11">
         <v>29084747</v>
       </c>
-      <c r="O25" s="57"/>
+      <c r="O25" s="55"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="10">
         <v>81</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L26" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N26" s="11">
         <v>29084747</v>
@@ -2239,183 +2243,183 @@
       <c r="O26" s="9"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="49">
+        <v>28128852</v>
+      </c>
+      <c r="O27" s="49"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="48">
+        <v>29152781</v>
+      </c>
+      <c r="O28" s="49"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="K27" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="51">
-        <v>28128852</v>
-      </c>
-      <c r="O27" s="51"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="50">
-        <v>29152781</v>
-      </c>
-      <c r="O28" s="51"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="54">
+      <c r="I29" s="52">
         <v>3.3</v>
       </c>
-      <c r="J29" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="55">
+      <c r="J29" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="53">
         <v>29084747</v>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="10">
         <v>2.1</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L30" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N30" s="11">
         <v>29084747</v>
@@ -2423,45 +2427,45 @@
       <c r="O30" s="9"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="25">
         <v>4.2</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L31" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N31" s="23">
         <v>29084747</v>
@@ -2469,45 +2473,45 @@
       <c r="O31" s="9"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" s="10">
         <v>22</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L32" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N32" s="11">
         <v>29084747</v>
@@ -2515,45 +2519,45 @@
       <c r="O32" s="9"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="10">
         <v>38</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L33" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N33" s="11">
         <v>29084747</v>
@@ -2561,45 +2565,45 @@
       <c r="O33" s="9"/>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="10">
         <v>146</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L34" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N34" s="11">
         <v>29084747</v>
@@ -2607,45 +2611,45 @@
       <c r="O34" s="9"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>30</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="10">
         <v>153</v>
       </c>
-      <c r="J35" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="55" t="s">
-        <v>21</v>
+      <c r="J35" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N35" s="11">
         <v>29084747</v>
@@ -2653,137 +2657,137 @@
       <c r="O35" s="9"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F36" s="9">
         <v>3</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L36" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="55" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="L36" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>61</v>
+        <v>5</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I37" s="52">
+        <v>2</v>
+      </c>
+      <c r="I37" s="50">
         <v>13</v>
       </c>
-      <c r="J37" s="50" t="s">
-        <v>53</v>
+      <c r="J37" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L37" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="O37" s="51"/>
+        <v>52</v>
+      </c>
+      <c r="L37" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="O37" s="49"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="56" t="s">
+        <v>27</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" s="10">
         <v>54</v>
       </c>
-      <c r="J38" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="55" t="s">
-        <v>21</v>
+      <c r="J38" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N38" s="11">
         <v>29084747</v>
@@ -2791,137 +2795,137 @@
       <c r="O38" s="9"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F39" s="9">
         <v>3</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L39" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="55" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="L39" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I40" s="56">
+      <c r="I40" s="54">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J40" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="55" t="s">
-        <v>21</v>
+      <c r="J40" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N40" s="11">
         <v>29084747</v>
       </c>
-      <c r="O40" s="57"/>
+      <c r="O40" s="55"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="55" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>3</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="56">
+        <v>2</v>
+      </c>
+      <c r="I41" s="54">
         <v>3.2</v>
       </c>
-      <c r="J41" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="55" t="s">
-        <v>21</v>
+      <c r="J41" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N41" s="11">
         <v>29084747</v>
@@ -2929,45 +2933,45 @@
       <c r="O41" s="9"/>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="58" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="56" t="s">
+        <v>25</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" s="10">
         <v>2</v>
       </c>
-      <c r="J42" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" s="55" t="s">
-        <v>21</v>
+      <c r="J42" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N42" s="11">
         <v>29084747</v>
@@ -2975,91 +2979,91 @@
       <c r="O42" s="9"/>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="54">
+        <v>12</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="52">
         <v>2.9</v>
       </c>
-      <c r="J43" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="55">
+      <c r="J43" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="53">
         <v>29084747</v>
       </c>
       <c r="O43" s="9"/>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="58" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="56" t="s">
+        <v>28</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J44" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="55" t="s">
-        <v>21</v>
+      <c r="J44" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N44" s="11">
         <v>29084747</v>
@@ -3067,45 +3071,45 @@
       <c r="O44" s="9"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="58" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="56" t="s">
+        <v>30</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" s="10">
         <v>38</v>
       </c>
-      <c r="J45" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="55" t="s">
-        <v>21</v>
+      <c r="J45" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N45" s="11">
         <v>29084747</v>
@@ -3113,45 +3117,45 @@
       <c r="O45" s="9"/>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
-        <v>6</v>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="44" t="s">
+        <v>5</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I46" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="51" t="s">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="I46" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L46" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" s="55" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="L46" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N46" s="6">
         <v>29152781</v>
@@ -3159,725 +3163,725 @@
       <c r="O46" s="7"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L47" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="48">
+        <v>29152781</v>
+      </c>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="51">
+        <v>3</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="O48" s="51"/>
+    </row>
+    <row r="49" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L47" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="50">
-        <v>29152781</v>
-      </c>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="48" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="53">
-        <v>3</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L48" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="O48" s="53"/>
-    </row>
-    <row r="49" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="G49" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L49" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="55" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="L49" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N49" s="7">
         <v>28128852</v>
       </c>
       <c r="O49" s="7"/>
     </row>
-    <row r="50" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L50" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M50" s="55" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="L50" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N50" s="6">
         <v>29152781</v>
       </c>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L51" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="55" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="L51" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N51" s="6">
         <v>29152781</v>
       </c>
       <c r="O51" s="7"/>
     </row>
-    <row r="52" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L52" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" s="55" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="L52" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N52" s="19">
         <v>28412293</v>
       </c>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L53" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="55" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="L53" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N53" s="19">
         <v>28412293</v>
       </c>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="58" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="56" t="s">
+        <v>27</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" s="10">
         <v>1387</v>
       </c>
-      <c r="J54" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N54" s="55">
+      <c r="J54" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="53">
         <v>29084747</v>
       </c>
-      <c r="O54" s="53"/>
-    </row>
-    <row r="55" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="51"/>
+    </row>
+    <row r="55" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J55" s="25" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L55" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="55" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="L55" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="N55" s="19">
         <v>28412293</v>
       </c>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="58" t="s">
+    <row r="56" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="51">
+        <v>3</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="O56" s="51"/>
+    </row>
+    <row r="57" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="54">
+        <v>3.3</v>
+      </c>
+      <c r="J57" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" s="53">
+        <v>29084747</v>
+      </c>
+      <c r="O57" s="55"/>
+    </row>
+    <row r="58" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="51">
+        <v>3</v>
+      </c>
+      <c r="G58" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="O58" s="51"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="53">
+      <c r="C59" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="51">
         <v>3</v>
       </c>
-      <c r="G56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="6" t="s">
+      <c r="G59" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="O59" s="51"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I60" s="52">
+        <v>1674</v>
+      </c>
+      <c r="J60" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="53">
+        <v>29084747</v>
+      </c>
+      <c r="O60" s="51"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" s="54">
+        <v>4234</v>
+      </c>
+      <c r="J61" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="53">
+        <v>29084747</v>
+      </c>
+      <c r="O61" s="51"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I56" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L56" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="O56" s="53"/>
-    </row>
-    <row r="57" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="55" t="s">
+      <c r="G62" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="56">
-        <v>3.3</v>
-      </c>
-      <c r="J57" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L57" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" s="55">
+      <c r="I62" s="54">
+        <v>3585</v>
+      </c>
+      <c r="J62" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" s="53">
         <v>29084747</v>
       </c>
-      <c r="O57" s="57"/>
-    </row>
-    <row r="58" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="53">
-        <v>3</v>
-      </c>
-      <c r="G58" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="I58" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K58" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L58" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M58" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N58" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="O58" s="53"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F59" s="53">
-        <v>3</v>
-      </c>
-      <c r="G59" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="I59" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L59" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="O59" s="53"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="54">
-        <v>1674</v>
-      </c>
-      <c r="J60" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="55">
-        <v>29084747</v>
-      </c>
-      <c r="O60" s="53"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="I61" s="56">
-        <v>4234</v>
-      </c>
-      <c r="J61" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" s="55">
-        <v>29084747</v>
-      </c>
-      <c r="O61" s="53"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="G62" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="56">
-        <v>3585</v>
-      </c>
-      <c r="J62" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K62" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M62" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" s="55">
-        <v>29084747</v>
-      </c>
-      <c r="O62" s="57"/>
+      <c r="O62" s="55"/>
     </row>
   </sheetData>
   <sortState ref="A2:O62">
@@ -3890,3140 +3894,3140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>1</v>
-      </c>
       <c r="I2" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N2" s="19">
         <v>26778412</v>
       </c>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="61"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N3" s="19">
         <v>28412293</v>
       </c>
-      <c r="O3" s="65"/>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="63"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>88</v>
-      </c>
       <c r="L4" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N4" s="19">
         <v>26778412</v>
       </c>
-      <c r="O4" s="63"/>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="61"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N5" s="24">
         <v>29152781</v>
       </c>
-      <c r="O5" s="63"/>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="61"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N6" s="24">
         <v>29152781</v>
       </c>
-      <c r="O6" s="63"/>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="61"/>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N7" s="24">
         <v>29152781</v>
       </c>
-      <c r="O7" s="63"/>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="61"/>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="24">
         <v>3</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="61"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="63"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>2</v>
-      </c>
       <c r="G9" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N9" s="23">
         <v>28128852</v>
       </c>
-      <c r="O9" s="63"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="61"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N10" s="24">
         <v>29152781</v>
       </c>
-      <c r="O10" s="63"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="61"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="F11" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N11" s="19">
         <v>28412293</v>
       </c>
-      <c r="O11" s="65"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="63"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N12" s="24">
         <v>29152781</v>
       </c>
-      <c r="O12" s="63"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="61"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="31">
         <v>14448</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N13" s="24">
         <v>28193664</v>
       </c>
-      <c r="O13" s="62"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="60"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I14" s="31">
         <v>2.1</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N14" s="24">
         <v>28193664</v>
       </c>
-      <c r="O14" s="62"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="60"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I15" s="33">
         <v>4.5999999999999996</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N15" s="24">
         <v>28193664</v>
       </c>
-      <c r="O15" s="63"/>
-    </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="61"/>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N16" s="24">
         <v>29152781</v>
       </c>
-      <c r="O16" s="63"/>
-    </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="61"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I17" s="33">
         <v>3.1</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N17" s="24">
         <v>28193664</v>
       </c>
-      <c r="O17" s="63"/>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="61"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N18" s="24">
         <v>29152781</v>
       </c>
-      <c r="O18" s="63"/>
-    </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="61"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N19" s="24">
         <v>29152781</v>
       </c>
-      <c r="O19" s="63"/>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="61"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N20" s="24">
         <v>29152781</v>
       </c>
-      <c r="O20" s="63"/>
-    </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="61"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="31">
         <v>2.2999999999999998</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N21" s="24">
         <v>28193664</v>
       </c>
-      <c r="O21" s="62"/>
-    </row>
-    <row r="22" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="60"/>
+    </row>
+    <row r="22" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I22" s="31">
         <v>94</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N22" s="24">
         <v>28193664</v>
       </c>
-      <c r="O22" s="62"/>
-    </row>
-    <row r="23" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="60"/>
+    </row>
+    <row r="23" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I23" s="31">
         <v>3549</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N23" s="24">
         <v>28193664</v>
       </c>
-      <c r="O23" s="62"/>
-    </row>
-    <row r="24" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="60"/>
+    </row>
+    <row r="24" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I24" s="31">
         <v>2.4</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24" s="24">
         <v>28193664</v>
       </c>
-      <c r="O24" s="62"/>
-    </row>
-    <row r="25" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="60"/>
+    </row>
+    <row r="25" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N25" s="24">
         <v>29152781</v>
       </c>
-      <c r="O25" s="63"/>
-    </row>
-    <row r="26" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="61"/>
+    </row>
+    <row r="26" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="24">
         <v>3</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H26" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O26" s="61"/>
+    </row>
+    <row r="27" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O26" s="63"/>
-    </row>
-    <row r="27" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>2</v>
-      </c>
       <c r="G27" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N27" s="24">
         <v>29152781</v>
       </c>
-      <c r="O27" s="63"/>
-    </row>
-    <row r="28" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="61"/>
+    </row>
+    <row r="28" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N28" s="24">
         <v>29152781</v>
       </c>
-      <c r="O28" s="63"/>
-    </row>
-    <row r="29" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="61"/>
+    </row>
+    <row r="29" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F29" s="24">
         <v>3</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O29" s="61"/>
+    </row>
+    <row r="30" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O29" s="63"/>
-    </row>
-    <row r="30" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>2</v>
-      </c>
       <c r="G30" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N30" s="24">
         <v>29152781</v>
       </c>
-      <c r="O30" s="63"/>
-    </row>
-    <row r="31" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="61"/>
+    </row>
+    <row r="31" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N31" s="24">
         <v>29152781</v>
       </c>
-      <c r="O31" s="63"/>
-    </row>
-    <row r="32" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="61"/>
+    </row>
+    <row r="32" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N32" s="19">
         <v>26778412</v>
       </c>
-      <c r="O32" s="63"/>
-    </row>
-    <row r="33" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="61"/>
+    </row>
+    <row r="33" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="64" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N33" s="19">
         <v>28412293</v>
       </c>
-      <c r="O33" s="65"/>
-    </row>
-    <row r="34" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="63"/>
+    </row>
+    <row r="34" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O34" s="63"/>
-    </row>
-    <row r="35" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="O34" s="61"/>
+    </row>
+    <row r="35" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="33">
         <v>69</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O35" s="63"/>
-    </row>
-    <row r="36" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="O35" s="61"/>
+    </row>
+    <row r="36" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M36" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N36" s="23">
         <v>28128852</v>
       </c>
-      <c r="O36" s="63"/>
-    </row>
-    <row r="37" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="61"/>
+    </row>
+    <row r="37" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F37" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I37" s="31">
         <v>2.4</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N37" s="24">
         <v>28193664</v>
       </c>
-      <c r="O37" s="63"/>
-    </row>
-    <row r="38" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="61"/>
+    </row>
+    <row r="38" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N38" s="24">
         <v>29152781</v>
       </c>
-      <c r="O38" s="63"/>
-    </row>
-    <row r="39" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="61"/>
+    </row>
+    <row r="39" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F39" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O39" s="61"/>
+    </row>
+    <row r="40" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N39" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O39" s="63"/>
-    </row>
-    <row r="40" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I40" s="33">
         <v>1704</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M40" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N40" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O40" s="63"/>
-    </row>
-    <row r="41" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="O40" s="61"/>
+    </row>
+    <row r="41" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F41" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I41" s="33">
         <v>42</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N41" s="24">
         <v>28193664</v>
       </c>
-      <c r="O41" s="63"/>
-    </row>
-    <row r="42" spans="1:15" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="61"/>
+    </row>
+    <row r="42" spans="1:15" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N42" s="23">
         <v>28128852</v>
       </c>
-      <c r="O42" s="63"/>
-    </row>
-    <row r="43" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="61"/>
+    </row>
+    <row r="43" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F43" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I43" s="33">
         <v>108</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N43" s="24">
         <v>28193664</v>
       </c>
-      <c r="O43" s="63"/>
-    </row>
-    <row r="44" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="61"/>
+    </row>
+    <row r="44" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E44" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O44" s="61"/>
+    </row>
+    <row r="45" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="24" t="s">
+      <c r="B45" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I44" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K44" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O44" s="63"/>
-    </row>
-    <row r="45" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>2</v>
-      </c>
       <c r="G45" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N45" s="24">
         <v>29152781</v>
       </c>
-      <c r="O45" s="63"/>
-    </row>
-    <row r="46" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="61"/>
+    </row>
+    <row r="46" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F46" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I46" s="33">
         <v>3.8</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N46" s="24">
         <v>28193664</v>
       </c>
-      <c r="O46" s="63"/>
-    </row>
-    <row r="47" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="61"/>
+    </row>
+    <row r="47" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F47" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I47" s="33">
         <v>260</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L47" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M47" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N47" s="24">
         <v>28193664</v>
       </c>
-      <c r="O47" s="63"/>
-    </row>
-    <row r="48" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="61"/>
+    </row>
+    <row r="48" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F48" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I48" s="33">
         <v>131</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O48" s="63"/>
-    </row>
-    <row r="49" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="O48" s="61"/>
+    </row>
+    <row r="49" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" s="33">
         <v>2.1</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K49" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N49" s="24">
         <v>28193664</v>
       </c>
-      <c r="O49" s="63"/>
-    </row>
-    <row r="50" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="61"/>
+    </row>
+    <row r="50" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F50" s="24">
         <v>3</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L50" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M50" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O50" s="63"/>
-    </row>
-    <row r="51" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="O50" s="61"/>
+    </row>
+    <row r="51" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="64" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="H51" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="K51" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M51" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N51" s="19">
         <v>28412293</v>
       </c>
-      <c r="O51" s="65"/>
-    </row>
-    <row r="52" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="63"/>
+    </row>
+    <row r="52" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="64" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="H52" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M52" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N52" s="19">
         <v>28412293</v>
       </c>
-      <c r="O52" s="65"/>
-    </row>
-    <row r="53" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="63"/>
+    </row>
+    <row r="53" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F53" s="24">
         <v>3</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H53" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O53" s="61"/>
+    </row>
+    <row r="54" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I53" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L53" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N53" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O53" s="63"/>
-    </row>
-    <row r="54" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="24" t="s">
+      <c r="G54" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I54" s="33">
         <v>23</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M54" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O54" s="63"/>
-    </row>
-    <row r="55" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="O54" s="61"/>
+    </row>
+    <row r="55" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L55" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M55" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N55" s="23">
         <v>28128852</v>
       </c>
-      <c r="O55" s="63"/>
-    </row>
-    <row r="56" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O55" s="61"/>
+    </row>
+    <row r="56" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H56" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I56" s="33">
         <v>6.1</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L56" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M56" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N56" s="24">
         <v>28193664</v>
       </c>
-      <c r="O56" s="63"/>
-    </row>
-    <row r="57" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="61"/>
+    </row>
+    <row r="57" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I57" s="33">
         <v>94</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L57" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M57" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N57" s="24">
         <v>28193664</v>
       </c>
-      <c r="O57" s="63"/>
-    </row>
-    <row r="58" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="61"/>
+    </row>
+    <row r="58" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N58" s="24">
         <v>29152781</v>
       </c>
-      <c r="O58" s="63"/>
-    </row>
-    <row r="59" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O58" s="61"/>
+    </row>
+    <row r="59" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F59" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I59" s="31">
         <v>2238</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L59" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M59" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N59" s="24">
         <v>28193664</v>
       </c>
-      <c r="O59" s="62"/>
-    </row>
-    <row r="60" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O59" s="60"/>
+    </row>
+    <row r="60" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F60" s="24">
         <v>3</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H60" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K60" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O60" s="61"/>
+    </row>
+    <row r="61" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I60" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K60" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L60" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O60" s="63"/>
-    </row>
-    <row r="61" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>2</v>
-      </c>
       <c r="G61" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" s="64" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="H61" s="62" t="s">
+        <v>0</v>
       </c>
       <c r="I61" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L61" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M61" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N61" s="19">
         <v>28412293</v>
       </c>
-      <c r="O61" s="65"/>
-    </row>
-    <row r="62" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O61" s="63"/>
+    </row>
+    <row r="62" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F62" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="64" t="s">
         <v>2</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H62" s="66" t="s">
-        <v>3</v>
       </c>
       <c r="I62" s="31">
         <v>6.7</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L62" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M62" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N62" s="24">
         <v>28193664</v>
       </c>
-      <c r="O62" s="63"/>
-    </row>
-    <row r="63" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O62" s="61"/>
+    </row>
+    <row r="63" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" s="33">
         <v>2.2999999999999998</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L63" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M63" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N63" s="24">
         <v>28193664</v>
       </c>
-      <c r="O63" s="63"/>
-    </row>
-    <row r="64" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O63" s="61"/>
+    </row>
+    <row r="64" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F64" s="24">
         <v>3</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H64" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K64" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L64" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O64" s="61"/>
+    </row>
+    <row r="65" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I64" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K64" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L64" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M64" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N64" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O64" s="63"/>
-    </row>
-    <row r="65" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>2</v>
-      </c>
       <c r="G65" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L65" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M65" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N65" s="24">
         <v>29152781</v>
       </c>
-      <c r="O65" s="63"/>
-    </row>
-    <row r="66" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O65" s="61"/>
+    </row>
+    <row r="66" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L66" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M66" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N66" s="19">
         <v>28412293</v>
       </c>
-      <c r="O66" s="65"/>
-    </row>
-    <row r="67" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O66" s="63"/>
+    </row>
+    <row r="67" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L67" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M67" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N67" s="19">
         <v>28412293</v>
       </c>
-      <c r="O67" s="65"/>
-    </row>
-    <row r="68" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="63"/>
+    </row>
+    <row r="68" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F68" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="I68" s="31">
         <v>7.1</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L68" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M68" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N68" s="24">
         <v>28193664</v>
       </c>
-      <c r="O68" s="63"/>
-    </row>
-    <row r="69" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="61"/>
+    </row>
+    <row r="69" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K69" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L69" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M69" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N69" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O69" s="63"/>
+        <v>132</v>
+      </c>
+      <c r="O69" s="61"/>
     </row>
   </sheetData>
   <sortState ref="A2:O71">
@@ -7042,64 +7046,64 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:1" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
